--- a/conductances.xlsx
+++ b/conductances.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="13">
   <si>
     <t xml:space="preserve">conductance_name</t>
   </si>
@@ -73,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,6 +95,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,11 +145,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B152" activeCellId="0" sqref="B152:B161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B239" activeCellId="0" sqref="B239:B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -188,1763 +190,2643 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.984966314740737</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.384652442538135</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.65162686804358</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>-0.955790521958716</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.421072965820647</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.93783656994549</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>-0.769609930917345</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.22359656121218</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.462157310831136</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.992971741347864</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.165701877759669</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.270066881159403</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>-0.0227343965193728</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.131266437307103</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.127866118152001</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.388588317951841</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.170527002239081</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>-0.0635622962134562</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.267862411856156</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.118464842466877</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>-0.437322395057986</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>-0.152158140130353</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>-0.460066857256929</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>-0.0208890052417982</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>-0.0892865507029306</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>-0.337443198832266</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>-0.0374766723969359</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>-0.40566900236946</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>-0.180171411345989</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>-0.402625200653908</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>-0.100119633402003</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>0.0589283241535083</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>0.00337913102215862</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>-0.0883865304066973</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>-0.179899134342333</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0.0112078422458451</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>-0.0456396733950101</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0.121765530716519</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0.403582673006816</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>-0.102365489022615</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0.794089169038316</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0.920699217028963</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>-0.153257101195908</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>0.364224877978154</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0.764700457546938</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>-0.346447864503365</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>0.228153631217901</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>-0.373247409141316</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>0.596664103489281</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>0.484736828485445</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>0.169642701150976</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>0.171860458888355</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>0.0583335787997399</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>0.0240844797436258</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>0.0663658859705343</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>0.502702495011308</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>0.217049079761275</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>0.149069749326599</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>0.30506789227263</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>0.165132647900194</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>-0.79721160566596</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>0.317190802422393</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>0.380722286421847</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>0.680792963095851</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>0.367938524785405</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>0.0829565995209009</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>-0.365040293645268</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>0.46758880098114</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>-0.0328054892633092</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>0.560524659948506</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>0.161903757060474</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>0.209301277149106</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>-0.206414546751002</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>-0.0894049814101262</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>0.0728190707089327</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>0.559146194578687</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>0.28175781246791</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>0.0829464218647026</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>0.317863326442267</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>0.177544237849019</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>-0.254484985892602</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>0.269882926335966</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>0.302324698440153</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>-0.0277967941966045</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>-0.646645034493379</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>0.617521448816233</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>0.619880506882065</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>-0.879112578957793</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>0.311282431412341</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>0.0761100867868656</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>0.201039769314319</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>0.404110351187005</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>0.237636490361715</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>0.214953820777146</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>0.0175526921599338</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>0.141075966935254</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>0.117581609426475</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>0.434890263083596</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>0.228810285999542</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>0.347360160223107</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>-0.481825773747618</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>-0.885599132106574</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>-0.7350574980883</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>-0.516338943539644</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>-0.714168460368932</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>-0.981128046131158</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>-0.868704578819307</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>-0.334978641268156</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>-0.790095264759783</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>-0.877273628068662</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>0.146585287064064</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>0.180859104550177</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>0.0572041911670185</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>0.0872956046146598</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>0.216942852133376</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>0.0956646771506843</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>0.114748540293541</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>0.0983946363863524</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>0.0231921408893925</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>0.187007256393134</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>0.0497621635572628</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>0.954485119411743</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>0.531328538331043</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>0.420114223241432</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>-0.125962347117435</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>0.285255963632686</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>-0.229216490083812</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>-0.0685783312610025</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>0.681103534161623</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>0.960175895536802</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>0.206844637471809</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>0.20906318012357</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>0.203492438297856</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>0.231010022961711</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>0.111591057119535</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>0.130457392838651</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>0.104122540078092</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>0.192624142289802</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>0.160707060019823</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>0.271690228681085</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>0.924295260579347</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>-0.0182018777774549</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>0.921430869229192</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>-0.737292140870878</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>0.467012620391145</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>0.929357467922236</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>0.801030653315564</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>0.2418879066546</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="2" t="n">
         <v>0.47040834760357</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>0.209391409484123</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>0.0816417017727219</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>-0.0230362779765398</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="2" t="n">
         <v>0.0805297553958358</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>0.164982548779811</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>-0.153538125283132</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="2" t="n">
         <v>-0.0707876259040467</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>-0.168235364273465</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>-0.102657853833391</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>-0.00596065056718175</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>0.200018435799603</v>
       </c>
-      <c r="C161" s="0" t="s">
-        <v>12</v>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>0.114881034748939</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>0.0313457308556606</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>-0.569511725026843</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>-0.630682463654332</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>0.491647780109735</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>0.412494897566231</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>0.181262050957322</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>0.406504181340446</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>0.256574753819916</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>0.411607329273287</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>-0.651411194067328</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>-0.68536855060859</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>-0.563758959494918</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>-0.423882272773126</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>-0.90833251092956</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>0.286010780502269</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0.0277282628993776</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>0.204266812426277</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>0.0849448217243824</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>0.167210909188377</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>0.118596371965035</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>0.863685707572629</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>0.829132075889752</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>0.271530682513945</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>-0.651900379438595</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>0.405003554365247</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0.103344432088575</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>0.428626502241572</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>0.149420101728508</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>0.327827539755348</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>0.675864944318559</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>-0.208058814965917</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>0.239029861931302</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>-0.320392958007808</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>0.477704452977025</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>0.306346228419782</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>-0.142797914846792</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0.419861857633767</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>-0.0660911296246187</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>0.183630731688556</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>0.570513041519452</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>0.843501023958629</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>0.988800413025081</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>-0.682169708682535</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>-0.872959981462437</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>0.288706083730092</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>0.11452278847421</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>0.234241421298209</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>0.141542184721168</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>0.132070581081668</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>-0.153970700574629</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>-0.196028303448819</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>-0.490298680233822</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>-0.0200140425614582</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>-0.011728538358116</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>0.332435818044341</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>-0.260068341942159</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>0.15659549940747</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>-0.222080953422758</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>-0.168556864998646</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>-0.712074869341978</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>-0.893251609417101</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>-0.757183456181426</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>0.665291291265543</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>0.535820298535552</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>0.486083027475944</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>0.161878893488747</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>0.324630410374159</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>0.0593203223196822</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>0.0475494311116551</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>0.252310408120534</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>-0.626199342676764</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>-0.13570989032852</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>0.720246106429253</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>0.806559579871131</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>0.53744605829666</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>0.205003345380869</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>0.339893786379864</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>0.0403232020911719</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>0.0338303379376919</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
